--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1508755.734965199</v>
+        <v>1506379.108017833</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>56.91750123718697</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>55.1779387891461</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>112.3581576295182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.781160222249216</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>360.3655810012722</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>19.08535881736821</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>90.69811547110066</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>152.5449695980481</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>110.2445386555258</v>
+        <v>71.46540913360272</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>35.34544850263634</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,10 +1370,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206798</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>162.4016674345627</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>120.8326485140796</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936219</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,10 +2719,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>176.5196562849271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>222.8161206669571</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046957</v>
       </c>
       <c r="D34" t="n">
-        <v>87.2147151485299</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.1686991936177</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1660.900948886692</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="C2" t="n">
-        <v>1291.93843194628</v>
+        <v>901.8222562515671</v>
       </c>
       <c r="D2" t="n">
-        <v>933.6727333395299</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>933.6727333395299</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>522.6868285499224</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>106.9820782742113</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>106.9820782742113</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926626</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.500788950814</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
@@ -4413,22 +4413,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.04593830764878</v>
+        <v>270.5950217532746</v>
       </c>
       <c r="C4" t="n">
-        <v>53.04593830764878</v>
+        <v>270.5950217532746</v>
       </c>
       <c r="D4" t="n">
-        <v>53.04593830764878</v>
+        <v>270.5950217532746</v>
       </c>
       <c r="E4" t="n">
-        <v>53.04593830764878</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F4" t="n">
-        <v>53.04593830764878</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>53.04593830764878</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>53.04593830764878</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764878</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.04593830764878</v>
+        <v>452.2434865835144</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1660.900948886693</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C5" t="n">
-        <v>1291.938431946281</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="D5" t="n">
-        <v>933.6727333395304</v>
+        <v>1141.96181897037</v>
       </c>
       <c r="E5" t="n">
-        <v>547.8844807412861</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>136.8985759516785</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4598,19 +4598,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926626</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.500788950814</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.2996089082458</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803388</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.831862022881</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.147373816994</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>1000.730203780033</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X7" t="n">
-        <v>772.7406528820156</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.9480737384855</v>
+        <v>381.6341495347366</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.28200107256</v>
+        <v>2365.452838973492</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.28200107256</v>
+        <v>2365.452838973492</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.28200107256</v>
+        <v>2034.389951629921</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.513345802446</v>
+        <v>1681.621296359807</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.513345802446</v>
+        <v>1681.621296359807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1681.621296359807</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143493</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L9" t="n">
-        <v>884.908532145821</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>385.8047973518188</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>606.597376495349</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>385.8047973518188</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797182</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797182</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257311</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310022</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797182</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>887.5809076559708</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038366</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797767</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,16 +6540,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101821</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6917,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7184,19 +7184,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
         <v>407.9027098310023</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>199.7516311504071</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>186.5911984019045</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780638</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.013714051753692e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260414</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>123.7828069546815</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>104.8770068749576</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294722</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>63.36835372228703</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.5498640939321</v>
       </c>
       <c r="D34" t="n">
-        <v>61.40075786968245</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459466</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392193967</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>62.35543909864917</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914749.3082663923</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663923</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914749.3082663923</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663926</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663924</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914749.3082663926</v>
+        <v>914749.3082663923</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914749.3082663924</v>
+        <v>914749.3082663923</v>
       </c>
     </row>
     <row r="15">
@@ -26317,40 +26317,40 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="H2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062537</v>
@@ -26366,19 +26366,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245453</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
@@ -26427,7 +26427,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26436,25 +26436,25 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="J4" t="n">
         <v>7507.368461719668</v>
       </c>
-      <c r="J4" t="n">
-        <v>7507.368461719656</v>
-      </c>
       <c r="K4" t="n">
-        <v>7507.368461719656</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719635</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-827652.3133973315</v>
       </c>
       <c r="C6" t="n">
-        <v>287099.4701785877</v>
+        <v>287099.4701785879</v>
       </c>
       <c r="D6" t="n">
-        <v>287099.470178588</v>
+        <v>287099.4701785881</v>
       </c>
       <c r="E6" t="n">
-        <v>-111648.7151039185</v>
+        <v>-111683.4530293548</v>
       </c>
       <c r="F6" t="n">
-        <v>395836.7265206269</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="G6" t="n">
-        <v>395836.7265206267</v>
+        <v>395801.9885951914</v>
       </c>
       <c r="H6" t="n">
-        <v>395836.7265206269</v>
+        <v>395801.9885951913</v>
       </c>
       <c r="I6" t="n">
-        <v>395836.7265206267</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="J6" t="n">
-        <v>228231.5487106443</v>
+        <v>228196.8107852089</v>
       </c>
       <c r="K6" t="n">
-        <v>395836.7265206269</v>
+        <v>395801.9885951913</v>
       </c>
       <c r="L6" t="n">
-        <v>395836.7265206271</v>
+        <v>395801.9885951913</v>
       </c>
       <c r="M6" t="n">
-        <v>263229.4327917005</v>
+        <v>263194.6948662644</v>
       </c>
       <c r="N6" t="n">
-        <v>395836.7265206269</v>
+        <v>395801.9885951911</v>
       </c>
       <c r="O6" t="n">
-        <v>395836.7265206269</v>
+        <v>395801.9885951912</v>
       </c>
       <c r="P6" t="n">
-        <v>395836.7265206269</v>
+        <v>395801.9885951912</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996087</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996087</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>297.765540383496</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10.5319738833244</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>34.07580501705097</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>103.0154349816514</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>21.56478907098955</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>392.4623439555858</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>195.5290386500999</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>66.03968375404665</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>96.41364632470798</v>
+        <v>135.192775846631</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>131.9013725959915</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,22 +28059,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>337.5641188593852</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>714.9328157424943</v>
       </c>
       <c r="N24" t="n">
-        <v>526.2989357561996</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,16 +33020,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33047,7 +33047,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>506.566534435233</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>566.6829634324475</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>577.7882979947784</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391982</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215487</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>199.009739079511</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204761</v>
       </c>
       <c r="N24" t="n">
-        <v>394.9572236728663</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096372</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191315</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066272</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>364.4325005132147</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
